--- a/Solina/Production/Input/GHI_2024-02-09.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-09.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2849.12</v>
+        <v>2848.79</v>
       </c>
       <c r="H2">
-        <v>6101.04</v>
+        <v>6099.75</v>
       </c>
       <c r="I2">
-        <v>712.21</v>
+        <v>712.34</v>
       </c>
       <c r="J2">
-        <v>997.65</v>
+        <v>768.91</v>
       </c>
       <c r="K2">
-        <v>67.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>981.29</v>
+        <v>768.91</v>
       </c>
     </row>
   </sheetData>
@@ -872,19 +872,19 @@
         <v>2.48</v>
       </c>
       <c r="I9">
-        <v>22.28</v>
+        <v>22.27</v>
       </c>
       <c r="J9">
         <v>3.97</v>
       </c>
       <c r="K9">
-        <v>2.05</v>
+        <v>0.78</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.05</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>86.79000000000001</v>
+        <v>86.78</v>
       </c>
       <c r="I10">
-        <v>383.27</v>
+        <v>383.2</v>
       </c>
       <c r="J10">
         <v>43.74</v>
       </c>
       <c r="K10">
-        <v>50.84</v>
+        <v>24.48</v>
       </c>
       <c r="L10">
-        <v>37.4</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>46.82</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>228.45</v>
+        <v>228.42</v>
       </c>
       <c r="I11">
-        <v>615.89</v>
+        <v>615.79</v>
       </c>
       <c r="J11">
-        <v>69.45</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="K11">
-        <v>78.51000000000001</v>
+        <v>61.64</v>
       </c>
       <c r="L11">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>78.09999999999999</v>
+        <v>61.64</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>352.69</v>
+        <v>352.66</v>
       </c>
       <c r="I12">
-        <v>722.84</v>
+        <v>722.74</v>
       </c>
       <c r="J12">
-        <v>83.95999999999999</v>
+        <v>83.97</v>
       </c>
       <c r="K12">
-        <v>154.08</v>
+        <v>102.45</v>
       </c>
       <c r="L12">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>147.9</v>
+        <v>102.45</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>438.04</v>
+        <v>438</v>
       </c>
       <c r="I13">
-        <v>775.78</v>
+        <v>775.6799999999999</v>
       </c>
       <c r="J13">
-        <v>92.01000000000001</v>
+        <v>92.03</v>
       </c>
       <c r="K13">
-        <v>168.54</v>
+        <v>121.94</v>
       </c>
       <c r="L13">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>165.05</v>
+        <v>121.94</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>473.83</v>
+        <v>473.78</v>
       </c>
       <c r="I14">
-        <v>794.89</v>
+        <v>794.74</v>
       </c>
       <c r="J14">
-        <v>95.05</v>
+        <v>95.08</v>
       </c>
       <c r="K14">
-        <v>168.27</v>
+        <v>128.88</v>
       </c>
       <c r="L14">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>166.36</v>
+        <v>128.88</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>456.01</v>
+        <v>455.95</v>
       </c>
       <c r="I15">
-        <v>785.7</v>
+        <v>785.53</v>
       </c>
       <c r="J15">
-        <v>93.53</v>
+        <v>93.56</v>
       </c>
       <c r="K15">
-        <v>153.36</v>
+        <v>122.13</v>
       </c>
       <c r="L15">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>153.02</v>
+        <v>122.13</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>386.55</v>
+        <v>386.5</v>
       </c>
       <c r="I16">
-        <v>745.54</v>
+        <v>745.39</v>
       </c>
       <c r="J16">
-        <v>87.25</v>
+        <v>87.27</v>
       </c>
       <c r="K16">
-        <v>115.93</v>
+        <v>100.55</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>115.93</v>
+        <v>100.55</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>273.76</v>
+        <v>273.73</v>
       </c>
       <c r="I17">
-        <v>660.83</v>
+        <v>660.6799999999999</v>
       </c>
       <c r="J17">
-        <v>75.19</v>
+        <v>75.2</v>
       </c>
       <c r="K17">
-        <v>68.44</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>68.44</v>
+        <v>68.43000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>134.31</v>
+        <v>134.28</v>
       </c>
       <c r="I18">
-        <v>486.69</v>
+        <v>486.5</v>
       </c>
       <c r="J18">
         <v>54.31</v>
       </c>
       <c r="K18">
-        <v>33.58</v>
+        <v>33.57</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>33.58</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,19 +1282,19 @@
         <v>16.22</v>
       </c>
       <c r="I19">
-        <v>107.33</v>
+        <v>107.24</v>
       </c>
       <c r="J19">
         <v>13.76</v>
       </c>
       <c r="K19">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="20" spans="1:13">
